--- a/MySQL/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
+++ b/MySQL/샘플-도서정보(2021-06-10)-MYSQL 테이블명세.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50518\Documents\workspace\DBMS\MySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8520" windowHeight="7305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블" sheetId="2" r:id="rId1"/>
@@ -645,7 +645,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3588,7 +3588,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
